--- a/contratos/contratos-10-2010.xlsx
+++ b/contratos/contratos-10-2010.xlsx
@@ -451,7 +451,7 @@
     <t>GALARZA HOGAR S.A.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>A. ROPELATO S.R.L.</t>
@@ -508,7 +508,7 @@
     <t>JACOBI SERGIO JAVIER</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -802,328 +802,328 @@
     <t>97</t>
   </si>
   <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>24.999,00</t>
-  </si>
-  <si>
-    <t>514,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>208,00</t>
-  </si>
-  <si>
-    <t>26.110,00</t>
-  </si>
-  <si>
-    <t>66.894,76</t>
-  </si>
-  <si>
-    <t>9.147,55</t>
-  </si>
-  <si>
-    <t>7.482,92</t>
-  </si>
-  <si>
-    <t>4.083,95</t>
-  </si>
-  <si>
-    <t>6.183,09</t>
-  </si>
-  <si>
-    <t>270,60</t>
-  </si>
-  <si>
-    <t>6.724,30</t>
-  </si>
-  <si>
-    <t>4.630,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>1.730,00</t>
-  </si>
-  <si>
-    <t>2.934,34</t>
-  </si>
-  <si>
-    <t>19.455,00</t>
-  </si>
-  <si>
-    <t>1.786,00</t>
-  </si>
-  <si>
-    <t>962,00</t>
-  </si>
-  <si>
-    <t>24.345,00</t>
-  </si>
-  <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>198,17</t>
-  </si>
-  <si>
-    <t>1.803,54</t>
-  </si>
-  <si>
-    <t>266,80</t>
-  </si>
-  <si>
-    <t>1.040,27</t>
-  </si>
-  <si>
-    <t>248,00</t>
-  </si>
-  <si>
-    <t>17.636,00</t>
-  </si>
-  <si>
-    <t>452,46</t>
-  </si>
-  <si>
-    <t>279,00</t>
-  </si>
-  <si>
-    <t>522,23</t>
-  </si>
-  <si>
-    <t>251,08</t>
-  </si>
-  <si>
-    <t>542,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>15.680,00</t>
-  </si>
-  <si>
-    <t>6.368,00</t>
-  </si>
-  <si>
-    <t>5.440,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>1.305,00</t>
-  </si>
-  <si>
-    <t>316,60</t>
-  </si>
-  <si>
-    <t>12.194,80</t>
-  </si>
-  <si>
-    <t>294,00</t>
-  </si>
-  <si>
-    <t>1.164,12</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>345,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>4.734,00</t>
-  </si>
-  <si>
-    <t>0,11</t>
-  </si>
-  <si>
-    <t>0,35</t>
-  </si>
-  <si>
-    <t>100.171,00</t>
-  </si>
-  <si>
-    <t>0,70</t>
-  </si>
-  <si>
-    <t>38,80</t>
-  </si>
-  <si>
-    <t>433,00</t>
-  </si>
-  <si>
-    <t>2.104,20</t>
-  </si>
-  <si>
-    <t>14,95</t>
-  </si>
-  <si>
-    <t>31,04</t>
-  </si>
-  <si>
-    <t>3.090,00</t>
-  </si>
-  <si>
-    <t>191,00</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>336,00</t>
-  </si>
-  <si>
-    <t>7.179,00</t>
-  </si>
-  <si>
-    <t>36,00</t>
-  </si>
-  <si>
-    <t>737,76</t>
-  </si>
-  <si>
-    <t>33,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>785,00</t>
-  </si>
-  <si>
-    <t>782,86</t>
-  </si>
-  <si>
-    <t>144,93</t>
-  </si>
-  <si>
-    <t>99,00</t>
-  </si>
-  <si>
-    <t>199,00</t>
-  </si>
-  <si>
-    <t>39,65</t>
-  </si>
-  <si>
-    <t>1.053,25</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>2.846,94</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>13.504,58</t>
-  </si>
-  <si>
-    <t>297,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>195,00</t>
-  </si>
-  <si>
-    <t>251,62</t>
-  </si>
-  <si>
-    <t>426,00</t>
-  </si>
-  <si>
-    <t>817,62</t>
-  </si>
-  <si>
-    <t>29.897,02</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>488,00</t>
-  </si>
-  <si>
-    <t>730,00</t>
-  </si>
-  <si>
-    <t>2.039,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>14.981,00</t>
-  </si>
-  <si>
-    <t>138,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>37.538,95</t>
-  </si>
-  <si>
-    <t>2.704,13</t>
-  </si>
-  <si>
-    <t>40.507,78</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>8.469,01</t>
-  </si>
-  <si>
-    <t>309.857,23</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>2.559,28</t>
-  </si>
-  <si>
-    <t>380,00</t>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>24999.00</t>
+  </si>
+  <si>
+    <t>514.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>208.00</t>
+  </si>
+  <si>
+    <t>26110.00</t>
+  </si>
+  <si>
+    <t>66894.76</t>
+  </si>
+  <si>
+    <t>9147.55</t>
+  </si>
+  <si>
+    <t>7482.92</t>
+  </si>
+  <si>
+    <t>4083.95</t>
+  </si>
+  <si>
+    <t>6183.09</t>
+  </si>
+  <si>
+    <t>270.60</t>
+  </si>
+  <si>
+    <t>6724.30</t>
+  </si>
+  <si>
+    <t>4630.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>1730.00</t>
+  </si>
+  <si>
+    <t>2934.34</t>
+  </si>
+  <si>
+    <t>19455.00</t>
+  </si>
+  <si>
+    <t>1786.00</t>
+  </si>
+  <si>
+    <t>962.00</t>
+  </si>
+  <si>
+    <t>24345.00</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>198.17</t>
+  </si>
+  <si>
+    <t>1803.54</t>
+  </si>
+  <si>
+    <t>266.80</t>
+  </si>
+  <si>
+    <t>1040.27</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>17636.00</t>
+  </si>
+  <si>
+    <t>452.46</t>
+  </si>
+  <si>
+    <t>279.00</t>
+  </si>
+  <si>
+    <t>522.23</t>
+  </si>
+  <si>
+    <t>251.08</t>
+  </si>
+  <si>
+    <t>542.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>15680.00</t>
+  </si>
+  <si>
+    <t>6368.00</t>
+  </si>
+  <si>
+    <t>5440.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>1305.00</t>
+  </si>
+  <si>
+    <t>316.60</t>
+  </si>
+  <si>
+    <t>12194.80</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>1164.12</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>345.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>4734.00</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>100171.00</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>38.80</t>
+  </si>
+  <si>
+    <t>433.00</t>
+  </si>
+  <si>
+    <t>2104.20</t>
+  </si>
+  <si>
+    <t>14.95</t>
+  </si>
+  <si>
+    <t>31.04</t>
+  </si>
+  <si>
+    <t>3090.00</t>
+  </si>
+  <si>
+    <t>191.00</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>336.00</t>
+  </si>
+  <si>
+    <t>7179.00</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>737.76</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>785.00</t>
+  </si>
+  <si>
+    <t>782.86</t>
+  </si>
+  <si>
+    <t>144.93</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>39.65</t>
+  </si>
+  <si>
+    <t>1053.25</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>2846.94</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>13504.58</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>251.62</t>
+  </si>
+  <si>
+    <t>426.00</t>
+  </si>
+  <si>
+    <t>817.62</t>
+  </si>
+  <si>
+    <t>29897.02</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>730.00</t>
+  </si>
+  <si>
+    <t>2039.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>14981.00</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>37538.95</t>
+  </si>
+  <si>
+    <t>2704.13</t>
+  </si>
+  <si>
+    <t>40507.78</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>8469.01</t>
+  </si>
+  <si>
+    <t>309857.23</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>2559.28</t>
+  </si>
+  <si>
+    <t>380.00</t>
   </si>
 </sst>
 </file>
